--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P33_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P33_trail11 Features.xlsx
@@ -1519,7 +1519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1530,29 +1530,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1573,115 +1571,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1698,72 +1686,66 @@
         <v>3.424758407404022e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.70145555530661</v>
+        <v>2.062402435898418e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.915617200999201</v>
+        <v>4.197223000260814e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.062402435898418e-06</v>
+        <v>-0.09948123136237502</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.197223000260814e-06</v>
+        <v>0.2394600840322307</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.09948123136237502</v>
+        <v>0.06707995520751144</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2394600840322307</v>
+        <v>1.605645240543316</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06707995520751144</v>
+        <v>1.712748360801616</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.524781704924229</v>
+        <v>3.23306991892871</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.712748360801616</v>
+        <v>1.0998376765167e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.23306991892871</v>
+        <v>24230376.92444618</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.0998376765167e-14</v>
+        <v>4.485909734223485e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>24230376.92444618</v>
+        <v>6.457269805612737</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.485909734223485e-06</v>
+        <v>0.0001811522439803375</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.457269805612737</v>
+        <v>10.13466700358853</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001811522439803375</v>
+        <v>1.210581282792274</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.13466700358853</v>
+        <v>0.01860641422834832</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.210581282792274</v>
+        <v>2.656332411225558</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01860641422834832</v>
+        <v>0.9440877765522759</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.656332411225558</v>
+        <v>1.852550198153395</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9440877765522759</v>
+        <v>4</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.852550198153395</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1511027083648342</v>
       </c>
     </row>
@@ -1778,72 +1760,66 @@
         <v>2.775706736550395e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.408299024265624</v>
+        <v>1.600986594384951e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.250233744602717</v>
+        <v>4.167069216581385e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.600986594384951e-06</v>
+        <v>-0.09619310205945131</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.167069216581385e-06</v>
+        <v>0.2159308728121526</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.09619310205945131</v>
+        <v>0.05575088136064955</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2159308728121526</v>
+        <v>1.622032643719318</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05575088136064955</v>
+        <v>1.577667761819942</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.546666361747363</v>
+        <v>3.220409751879305</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.577667761819942</v>
+        <v>1.108502100769285e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.220409751879305</v>
+        <v>23888222.85069258</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.108502100769285e-14</v>
+        <v>4.562952952532662e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>23888222.85069258</v>
+        <v>6.325636099820747</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.562952952532662e-06</v>
+        <v>0.0001848895590787416</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.325636099820747</v>
+        <v>11.83886206910604</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001848895590787416</v>
+        <v>1.066805499272848</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.83886206910604</v>
+        <v>0.02591387194090317</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.066805499272848</v>
+        <v>2.470994612506934</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02591387194090317</v>
+        <v>0.943695749005929</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.470994612506934</v>
+        <v>1.808290979209097</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.943695749005929</v>
+        <v>7</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.808290979209097</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1542128260281126</v>
       </c>
     </row>
@@ -1858,72 +1834,66 @@
         <v>2.320265198031491e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.133905778011875</v>
+        <v>1.285294848074464e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.884146360794482</v>
+        <v>4.143174641923632e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.285294848074464e-06</v>
+        <v>-0.09239388651885054</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.143174641923632e-06</v>
+        <v>0.1918276380055814</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.09239388651885054</v>
+        <v>0.04524278004709299</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1918276380055814</v>
+        <v>1.692744966021678</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04524278004709299</v>
+        <v>1.66102879842125</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.62110602118619</v>
+        <v>3.191410127015161</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.66102879842125</v>
+        <v>1.099056216514311e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.191410127015161</v>
+        <v>23268177.73031268</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.099056216514311e-14</v>
+        <v>4.835727929739941e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>23268177.73031268</v>
+        <v>5.950379323593856</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.835727929739941e-06</v>
+        <v>0.0001760777712342229</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.950379323593856</v>
+        <v>11.73412262185709</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001760777712342229</v>
+        <v>1.068690038146769</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.73412262185709</v>
+        <v>0.02424408382479392</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.068690038146769</v>
+        <v>2.605241767990913</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02424408382479392</v>
+        <v>0.9489489789185115</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.605241767990913</v>
+        <v>1.765775969093591</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9489489789185115</v>
+        <v>5</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.765775969093591</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1572965266910796</v>
       </c>
     </row>
@@ -1938,72 +1908,66 @@
         <v>1.995158353008817e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.888569271353967</v>
+        <v>1.075870239336677e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.903767978136017</v>
+        <v>4.123636492372274e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.075870239336677e-06</v>
+        <v>-0.08992295141544901</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.123636492372274e-06</v>
+        <v>0.178792702360346</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.08992295141544901</v>
+        <v>0.04000325231657183</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.178792702360346</v>
+        <v>1.741860853581914</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04000325231657183</v>
+        <v>1.506221371396701</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.677252065954454</v>
+        <v>3.474942327862236</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.506221371396701</v>
+        <v>9.270217895874948e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.474942327862236</v>
+        <v>26713199.59533948</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.270217895874948e-15</v>
+        <v>4.344650659556333e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>26713199.59533948</v>
+        <v>6.615181441805519</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.344650659556333e-06</v>
+        <v>0.0001792056058527387</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6.615181441805519</v>
+        <v>9.879622548317107</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001792056058527387</v>
+        <v>1.417865025131586</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.879622548317107</v>
+        <v>0.0174917111222825</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.417865025131586</v>
+        <v>2.853675505266556</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0174917111222825</v>
+        <v>0.9535203199843827</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.853675505266556</v>
+        <v>1.750077938461707</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9535203199843827</v>
+        <v>5</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.750077938461707</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1562123099438158</v>
       </c>
     </row>
@@ -2018,72 +1982,66 @@
         <v>1.746195166556266e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.619161251922235</v>
+        <v>9.328943805534788e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.932943621108947</v>
+        <v>4.106943362730695e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.328943805534788e-07</v>
+        <v>-0.08908245757954227</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.106943362730695e-06</v>
+        <v>0.177803320661906</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.08908245757954227</v>
+        <v>0.03951093938418548</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.177803320661906</v>
+        <v>1.742989875582134</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03951093938418548</v>
+        <v>1.472519653921732</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.681425606498148</v>
+        <v>4.249093072328084</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.472519653921732</v>
+        <v>6.198649922624407e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.249093072328084</v>
+        <v>37292419.32891805</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.198649922624407e-15</v>
+        <v>3.089177093427917e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>37292419.32891805</v>
+        <v>8.620614558567604</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.089177093427917e-06</v>
+        <v>0.0002042087656541881</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8.620614558567604</v>
+        <v>8.828633088579476</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002042087656541881</v>
+        <v>1.859061006992885</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.828633088579476</v>
+        <v>0.01591700368067701</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.859061006992885</v>
+        <v>2.887777948533244</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01591700368067701</v>
+        <v>0.9555483975370406</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.887777948533244</v>
+        <v>1.738863685648305</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9555483975370406</v>
+        <v>5</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.738863685648305</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1568699101093189</v>
       </c>
     </row>
@@ -2098,72 +2056,66 @@
         <v>1.551256006748263e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.311265954440496</v>
+        <v>8.077208316988155e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.833353736248652</v>
+        <v>4.092447805452627e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.077208316988155e-07</v>
+        <v>-0.08682202600290827</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.092447805452627e-06</v>
+        <v>0.1761843869296504</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.08682202600290827</v>
+        <v>0.03853904340049792</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1761843869296504</v>
+        <v>1.769117615558924</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03853904340049792</v>
+        <v>1.576275139784945</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.7162742717039</v>
+        <v>4.485059380441685</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.576275139784945</v>
+        <v>2.604399935798291e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.485059380441685</v>
+        <v>85475154.50902846</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.604399935798291e-15</v>
+        <v>1.34883913985958e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>85475154.50902846</v>
+        <v>19.02775123960084</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.34883913985958e-06</v>
+        <v>0.000177470683319389</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>19.02775123960084</v>
+        <v>9.501665088840822</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000177470683319389</v>
+        <v>1.472344805568044</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.501665088840822</v>
+        <v>0.01602234424624902</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.472344805568044</v>
+        <v>2.924886818556506</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01602234424624902</v>
+        <v>0.9585646903598178</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.924886818556506</v>
+        <v>1.71563342513294</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9585646903598178</v>
+        <v>5</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.71563342513294</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1810864704354878</v>
       </c>
     </row>
@@ -2178,72 +2130,66 @@
         <v>1.406039048844949e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.023029413665327</v>
+        <v>6.875633726014905e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.8672304985815433</v>
+        <v>4.080009382500443e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.875633726014905e-07</v>
+        <v>-0.08127786731272119</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.080009382500443e-06</v>
+        <v>0.1678030491606318</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.08127786731272119</v>
+        <v>0.03472426041026658</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1678030491606318</v>
+        <v>1.809253778505617</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03472426041026658</v>
+        <v>1.937262583086554</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.76998912367336</v>
+        <v>3.855079774653813</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.937262583086554</v>
+        <v>1.894349493057419e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.855079774653813</v>
+        <v>118860555.0581728</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.894349493057419e-15</v>
+        <v>9.845625011310596e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>118860555.0581728</v>
+        <v>26.76305053235042</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.845625011310596e-07</v>
+        <v>0.0001477191627255316</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>26.76305053235042</v>
+        <v>10.96732049999971</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001477191627255316</v>
+        <v>1.120677945128097</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.96732049999971</v>
+        <v>0.01776797390210453</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.120677945128097</v>
+        <v>2.866247026432192</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01776797390210453</v>
+        <v>0.9610549077753</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.866247026432192</v>
+        <v>1.674953467413522</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9610549077753</v>
+        <v>5</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.674953467413522</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2104943001040557</v>
       </c>
     </row>
@@ -2258,72 +2204,66 @@
         <v>1.304268139243479e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.8210962525943666</v>
+        <v>5.898105070425972e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.2957290238795331</v>
+        <v>4.069499026567373e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.898105070425972e-07</v>
+        <v>-0.07412141016136352</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.069499026567373e-06</v>
+        <v>0.1597692924941092</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.07412141016136352</v>
+        <v>0.03099402628714113</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1597692924941092</v>
+        <v>1.776345574387457</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03099402628714113</v>
+        <v>1.810557290955092</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.73793942706133</v>
+        <v>3.832953654636131</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.810557290955092</v>
+        <v>1.916283273746076e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.832953654636131</v>
+        <v>117192888.2932447</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.916283273746076e-15</v>
+        <v>9.894836873642168e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>117192888.2932447</v>
+        <v>26.31856612609261</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>9.894836873642168e-07</v>
+        <v>0.0001331435307561806</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>26.31856612609261</v>
+        <v>9.698936708930825</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001331435307561806</v>
+        <v>1.14965228729015</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.698936708930825</v>
+        <v>0.01252472849503237</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.14965228729015</v>
+        <v>2.972763199755931</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01252472849503237</v>
+        <v>0.9588822502782794</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.972763199755931</v>
+        <v>1.675226589916922</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9588822502782794</v>
+        <v>5</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.675226589916922</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2133490373928461</v>
       </c>
     </row>
@@ -2338,72 +2278,66 @@
         <v>1.230758333876257e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.6988270296243729</v>
+        <v>5.2607496361526e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.02374179024490042</v>
+        <v>4.060482199588395e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.2607496361526e-07</v>
+        <v>-0.06908386417488326</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.060482199588395e-06</v>
+        <v>0.1595252530210409</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06908386417488326</v>
+        <v>0.03021415950566558</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1595252530210409</v>
+        <v>1.784945868874741</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03021415950566558</v>
+        <v>1.729858217937024</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.742442709146035</v>
+        <v>3.532781710224161</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.729858217937024</v>
+        <v>2.255761803199038e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.532781710224161</v>
+        <v>105418874.2488212</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.255761803199038e-15</v>
+        <v>1.111119548556673e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>105418874.2488212</v>
+        <v>25.06859457786721</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.111119548556673e-06</v>
+        <v>0.000135944639873538</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>25.06859457786721</v>
+        <v>7.831706973114764</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000135944639873538</v>
+        <v>1.455768723895327</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.831706973114764</v>
+        <v>0.00833825069087077</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.455768723895327</v>
+        <v>3.129641590546179</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.00833825069087077</v>
+        <v>0.9579782352862365</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.129641590546179</v>
+        <v>1.680586278897232</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9579782352862365</v>
+        <v>5</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.680586278897232</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2013039174808554</v>
       </c>
     </row>
@@ -2418,72 +2352,66 @@
         <v>1.16830678218129e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.598163322825908</v>
+        <v>4.949762225443837e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.1892594410090984</v>
+        <v>4.052278379112531e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.949762225443837e-07</v>
+        <v>-0.06794126362081418</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.052278379112531e-06</v>
+        <v>0.1665346315915292</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06794126362081418</v>
+        <v>0.03234685022906136</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1665346315915292</v>
+        <v>1.769428747262289</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03234685022906136</v>
+        <v>1.707217216256404</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.722657080563029</v>
+        <v>3.541614422175726</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.707217216256404</v>
+        <v>2.244524188805212e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.541614422175726</v>
+        <v>102162193.7319299</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.244524188805212e-15</v>
+        <v>1.141526946901918e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>102162193.7319299</v>
+        <v>23.42635444852953</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.141526946901918e-06</v>
+        <v>0.0001434519356456292</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>23.42635444852953</v>
+        <v>7.78483772818612</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001434519356456292</v>
+        <v>1.545430667288605</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.78483772818612</v>
+        <v>0.008693717850537587</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.545430667288605</v>
+        <v>3.118463730286375</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.008693717850537587</v>
+        <v>0.9568685773529108</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.118463730286375</v>
+        <v>1.691073959008349</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9568685773529108</v>
+        <v>5</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.691073959008349</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2014365129039169</v>
       </c>
     </row>
@@ -2498,72 +2426,66 @@
         <v>1.109989977083469e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.4896937344701115</v>
+        <v>4.681339849536162e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.4538689411973147</v>
+        <v>4.044573732286143e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.681339849536162e-07</v>
+        <v>-0.06733074456321689</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.044573732286143e-06</v>
+        <v>0.1741603201758192</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06733074456321689</v>
+        <v>0.03486139020085235</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1741603201758192</v>
+        <v>1.766308432430318</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03486139020085235</v>
+        <v>1.71228923105852</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.716121809512757</v>
+        <v>3.576982075882975</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.71228923105852</v>
+        <v>2.200357851136231e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.576982075882975</v>
+        <v>104189053.5717426</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.200357851136231e-15</v>
+        <v>1.117918037302646e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>104189053.5717426</v>
+        <v>23.88567414769689</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.117918037302646e-06</v>
+        <v>0.000147766864600357</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>23.88567414769689</v>
+        <v>9.167639112084728</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000147766864600357</v>
+        <v>1.310508248537962</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.167639112084728</v>
+        <v>0.0124191558134846</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.310508248537962</v>
+        <v>3.042901411602582</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0124191558134846</v>
+        <v>0.9568885501637223</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.042901411602582</v>
+        <v>1.680760112971271</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9568885501637223</v>
+        <v>5</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.680760112971271</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2095809965245304</v>
       </c>
     </row>
@@ -2578,72 +2500,66 @@
         <v>1.057254342931618e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.3806327717462781</v>
+        <v>4.353170503287764e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.7523317311939053</v>
+        <v>4.037367651265629e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.353170503287764e-07</v>
+        <v>-0.06540042093116524</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.037367651265629e-06</v>
+        <v>0.180401731477999</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06540042093116524</v>
+        <v>0.03681495437919035</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.180401731477999</v>
+        <v>1.755030996612845</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03681495437919035</v>
+        <v>1.709931481187677</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.697670318960341</v>
+        <v>3.695248341259729</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.709931481187677</v>
+        <v>2.061766997588451e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.695248341259729</v>
+        <v>111333170.1353791</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.061766997588451e-15</v>
+        <v>1.042109711674736e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>111333170.1353791</v>
+        <v>25.55575609836163</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.042109711674736e-06</v>
+        <v>0.0001424301323908444</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>25.55575609836163</v>
+        <v>10.90633733674072</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001424301323908444</v>
+        <v>1.108105709208738</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.90633733674072</v>
+        <v>0.01694180703371149</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.108105709208738</v>
+        <v>2.921508110967658</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01694180703371149</v>
+        <v>0.9554980776300418</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.921508110967658</v>
+        <v>1.684826435384256</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9554980776300418</v>
+        <v>10</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.684826435384256</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2339532931719724</v>
       </c>
     </row>
@@ -2658,72 +2574,66 @@
         <v>1.01290573077697e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2967197117500565</v>
+        <v>3.982207853509683e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.00617912833537</v>
+        <v>4.030797838555096e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.982207853509683e-07</v>
+        <v>-0.06124941832930649</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.030797838555096e-06</v>
+        <v>0.1848987118380585</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06124941832930649</v>
+        <v>0.0379301041710395</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1848987118380585</v>
+        <v>1.757205811768169</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.0379301041710395</v>
+        <v>1.772243754012154</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.699917575382139</v>
+        <v>4.092545377326548</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.772243754012154</v>
+        <v>2.140931106379103e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.092545377326548</v>
+        <v>105799300.8451977</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.140931106379103e-15</v>
+        <v>1.095573498893673e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>105799300.8451977</v>
+        <v>23.96449533883274</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.095573498893673e-06</v>
+        <v>0.0001387848575565578</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>23.96449533883274</v>
+        <v>10.36401347723966</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001387848575565578</v>
+        <v>1.172624473303045</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.36401347723966</v>
+        <v>0.01490726672759324</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.172624473303045</v>
+        <v>3.075395559691405</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01490726672759324</v>
+        <v>0.9550042963378084</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.075395559691405</v>
+        <v>1.705588138465784</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9550042963378084</v>
+        <v>10</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.705588138465784</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2344849757215092</v>
       </c>
     </row>
@@ -2738,72 +2648,66 @@
         <v>9.765877132112479e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2543207799693953</v>
+        <v>3.61684090687623e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.169339003057601</v>
+        <v>4.02500963960954e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.61684090687623e-07</v>
+        <v>-0.05476241153132814</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.02500963960954e-06</v>
+        <v>0.1894264233814779</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05476241153132814</v>
+        <v>0.03887025124717559</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1894264233814779</v>
+        <v>1.793456010591556</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03887025124717559</v>
+        <v>1.579858266258509</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.745607086166398</v>
+        <v>4.576884588958963</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.579858266258509</v>
+        <v>2.499598474722729e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.576884588958963</v>
+        <v>88686114.35446346</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.499598474722729e-15</v>
+        <v>1.323747565105995e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>88686114.35446346</v>
+        <v>19.65990911082892</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.323747565105995e-06</v>
+        <v>0.0001838831964282725</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>19.65990911082892</v>
+        <v>9.25016800063684</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001838831964282725</v>
+        <v>1.614787723844239</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.25016800063684</v>
+        <v>0.01573407751072495</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.614787723844239</v>
+        <v>3.022388355772495</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01573407751072495</v>
+        <v>0.9565091405618088</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.022388355772495</v>
+        <v>1.633395661663635</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9565091405618088</v>
+        <v>9</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.633395661663635</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1970049797731361</v>
       </c>
     </row>
@@ -2818,72 +2722,66 @@
         <v>9.459917314080892e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2527723808477281</v>
+        <v>3.282824121860542e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.235157846549871</v>
+        <v>4.020158578154503e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.282824121860542e-07</v>
+        <v>-0.04568473150589779</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.020158578154503e-06</v>
+        <v>0.1969334983964154</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04568473150589779</v>
+        <v>0.04085355706924557</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1969334983964154</v>
+        <v>1.785566071850073</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.04085355706924557</v>
+        <v>1.549473877282205</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.734791634848976</v>
+        <v>4.430476164413697</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.549473877282205</v>
+        <v>2.854792555171155e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.430476164413697</v>
+        <v>74558681.94387226</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.854792555171155e-15</v>
+        <v>1.565860468872428e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>74558681.94387226</v>
+        <v>15.86978340171517</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.565860468872428e-06</v>
+        <v>0.000212811669460297</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>15.86978340171517</v>
+        <v>9.951073045766812</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000212811669460297</v>
+        <v>1.502315981752012</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.951073045766812</v>
+        <v>0.02107343184833494</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.502315981752012</v>
+        <v>2.787141390258963</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02107343184833494</v>
+        <v>0.9549687741726794</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.787141390258963</v>
+        <v>1.664919268648401</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9549687741726794</v>
+        <v>9</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.664919268648401</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1724384429888584</v>
       </c>
     </row>
@@ -2898,72 +2796,66 @@
         <v>9.191190179173989e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2740051461490108</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.21764505608166</v>
+        <v>4.016434612943966e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>-0.03358638183683944</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.016434612943966e-06</v>
+        <v>0.2113066957131328</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03358638183683944</v>
+        <v>0.04575096237887685</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2113066957131328</v>
+        <v>1.781977165314801</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04575096237887685</v>
+        <v>1.601219044714048</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.733649235602795</v>
+        <v>4.026250162675076</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.601219044714048</v>
+        <v>3.847535328189577e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.026250162675076</v>
+        <v>55380915.96081994</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.847535328189577e-15</v>
+        <v>2.088892336518529e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>55380915.96081994</v>
+        <v>11.80056727128437</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.088892336518529e-06</v>
+        <v>0.0001982802552177797</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>11.80056727128437</v>
+        <v>11.25854116367718</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001982802552177797</v>
+        <v>1.212849486151138</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.25854116367718</v>
+        <v>0.02513296400839752</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.212849486151138</v>
+        <v>2.69815001859585</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02513296400839752</v>
+        <v>0.9558244269938834</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.69815001859585</v>
+        <v>1.644123495653606</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9558244269938834</v>
+        <v>9</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.644123495653606</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1662799295124873</v>
       </c>
     </row>
@@ -2978,72 +2870,66 @@
         <v>8.969280739334685e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.2895549017249406</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.158730946698886</v>
+        <v>4.013998122527001e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>-0.02044831334468597</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.013998122527001e-06</v>
+        <v>0.2287078694813152</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.02044831334468597</v>
+        <v>0.05270766027933613</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2287078694813152</v>
+        <v>1.604306402404086</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.05270766027933613</v>
+        <v>1.451077441639769</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.536012599148197</v>
+        <v>6.167343679916249</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.451077441639769</v>
+        <v>6.932094723641196e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>6.167343679916249</v>
+        <v>35517784.65422097</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>6.932094723641196e-15</v>
+        <v>2.849727268604758e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>35517784.65422097</v>
+        <v>8.744927796494046</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.849727268604758e-06</v>
+        <v>0.0001794931781522543</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>8.744927796494046</v>
+        <v>12.17713790335509</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001794931781522543</v>
+        <v>1.053958811109454</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>12.17713790335509</v>
+        <v>0.02661573084744267</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.053958811109454</v>
+        <v>2.617111798651264</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02661573084744267</v>
+        <v>0.9462130187384986</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.617111798651264</v>
+        <v>1.782565101389854</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9462130187384986</v>
+        <v>7</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.782565101389854</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1782174935633162</v>
       </c>
     </row>
@@ -3058,72 +2944,66 @@
         <v>8.814317607956474e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.292793754868158</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.108238405847456</v>
+        <v>4.012561245926531e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>-0.01313385753318317</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.012561245926531e-06</v>
+        <v>0.2355576400198837</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.01313385753318317</v>
+        <v>0.05565826836802387</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2355576400198837</v>
+        <v>1.571573686944921</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.05565826836802387</v>
+        <v>1.404830056149044</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.502680622264288</v>
+        <v>4.464830350848782</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.404830056149044</v>
+        <v>1.630922541290877e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.464830350848782</v>
+        <v>15428452.66149626</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.630922541290877e-14</v>
+        <v>6.480741997316601e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>15428452.66149626</v>
+        <v>3.882201560917379</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>6.480741997316601e-06</v>
+        <v>0.0002106147747502732</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>3.882201560917379</v>
+        <v>9.269768698591751</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002106147747502732</v>
+        <v>1.671278621820915</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.269768698591751</v>
+        <v>0.01809783520314699</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.671278621820915</v>
+        <v>2.825086783817409</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01809783520314699</v>
+        <v>0.9434304069235256</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.825086783817409</v>
+        <v>1.897752756195944</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9434304069235256</v>
+        <v>7</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.897752756195944</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1416585974697744</v>
       </c>
     </row>
@@ -3138,72 +3018,66 @@
         <v>8.694987015005703e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.2947532133951875</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.063764600827027</v>
+        <v>4.011484254254886e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>-0.0121728921927712</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.011484254254886e-06</v>
+        <v>0.2386937438876517</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.0121728921927712</v>
+        <v>0.05712203404565652</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2386937438876517</v>
+        <v>1.528436572240484</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.05712203404565652</v>
+        <v>1.40792198184033</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.449262567365336</v>
+        <v>4.180502467094067</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.40792198184033</v>
+        <v>1.860314155029274e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.180502467094067</v>
+        <v>14116844.47846973</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.860314155029274e-14</v>
+        <v>6.997971344283618e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>14116844.47846973</v>
+        <v>3.707332608131368</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.997971344283618e-06</v>
+        <v>0.0001692619321853559</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>3.707332608131368</v>
+        <v>9.066986468732784</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001692619321853559</v>
+        <v>1.500923073730376</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.066986468732784</v>
+        <v>0.01391506468125812</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.500923073730376</v>
+        <v>2.965109508220713</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01391506468125812</v>
+        <v>0.9412534585908436</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.965109508220713</v>
+        <v>1.918688869185415</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9412534585908436</v>
+        <v>7</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.918688869185415</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1508565280327149</v>
       </c>
     </row>
@@ -3218,72 +3092,66 @@
         <v>8.580672331753061e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.3006118237121786</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.011318029490683</v>
+        <v>4.010400263520463e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>-0.01289529150594193</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.010400263520463e-06</v>
+        <v>0.2420859646475102</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.01289529150594193</v>
+        <v>0.0587698919667131</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2420859646475102</v>
+        <v>1.500019126898021</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0587698919667131</v>
+        <v>1.396127652969001</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.418567070458661</v>
+        <v>4.187627172642785</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.396127652969001</v>
+        <v>1.853989372572782e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.187627172642785</v>
+        <v>14056392.35053254</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.853989372572782e-14</v>
+        <v>6.918666412498003e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>14056392.35053254</v>
+        <v>3.663152358109637</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>6.918666412498003e-06</v>
+        <v>0.0001390633367121077</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>3.663152358109637</v>
+        <v>9.297944019708405</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001390633367121077</v>
+        <v>1.215591508068303</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.297944019708405</v>
+        <v>0.01202227062653869</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.215591508068303</v>
+        <v>2.939234933709612</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01202227062653869</v>
+        <v>0.935600865750309</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.939234933709612</v>
+        <v>1.901161919952399</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.935600865750309</v>
+        <v>8</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.901161919952399</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1718964485244138</v>
       </c>
     </row>
@@ -3298,72 +3166,66 @@
         <v>8.474986227144042e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3129179677032632</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.9488346398271386</v>
+        <v>4.009303062513416e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>-0.01267430858255644</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.009303062513416e-06</v>
+        <v>0.2449524039651279</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.01267430858255644</v>
+        <v>0.06016103798764019</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2449524039651279</v>
+        <v>1.499120567585617</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.06016103798764019</v>
+        <v>1.399424924341251</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.413525317280661</v>
+        <v>4.190929074494984</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.399424924341251</v>
+        <v>1.851069123009914e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.190929074494984</v>
+        <v>14165659.17330121</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.851069123009914e-14</v>
+        <v>6.883542745615397e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>14165659.17330121</v>
+        <v>3.71446451186942</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>6.883542745615397e-06</v>
+        <v>0.0001353861913296324</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>3.71446451186942</v>
+        <v>9.118462065324207</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001353861913296324</v>
+        <v>1.22001605494256</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.118462065324207</v>
+        <v>0.01125686770859139</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.22001605494256</v>
+        <v>2.847277839319827</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01125686770859139</v>
+        <v>0.9353073560199709</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.847277839319827</v>
+        <v>1.923345616301506</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9353073560199709</v>
+        <v>8</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.923345616301506</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1820287968491799</v>
       </c>
     </row>
@@ -3378,72 +3240,66 @@
         <v>8.383394680787563e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.3289694230915772</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.8833310396988745</v>
+        <v>4.008280762098797e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>-0.01145235962256288</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.008280762098797e-06</v>
+        <v>0.2474425186799055</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.01145235962256288</v>
+        <v>0.06135862606119315</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2474425186799055</v>
+        <v>1.492750863111233</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.06135862606119315</v>
+        <v>1.390026999363733</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.405414545943789</v>
+        <v>4.133032744039934</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.390026999363733</v>
+        <v>1.903292633562716e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.133032744039934</v>
+        <v>13499180.03355506</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.903292633562716e-14</v>
+        <v>7.124201461772246e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>13499180.03355506</v>
+        <v>3.468329465719248</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>7.124201461772246e-06</v>
+        <v>0.0001347075324737456</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>3.468329465719248</v>
+        <v>8.390121061127871</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001347075324737456</v>
+        <v>1.251849621104657</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.390121061127871</v>
+        <v>0.009482619744272152</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.251849621104657</v>
+        <v>2.929533695128665</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.009482619744272152</v>
+        <v>0.9330283799120502</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.929533695128665</v>
+        <v>1.925876258300476</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9330283799120502</v>
+        <v>8</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.925876258300476</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1764850858241853</v>
       </c>
     </row>
@@ -3458,72 +3314,66 @@
         <v>8.302783227858544e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.3425766994898829</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.8227137968156315</v>
+        <v>4.007402348068474e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>-0.009521768760130037</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.007402348068474e-06</v>
+        <v>0.2504068445317812</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.009521768760130037</v>
+        <v>0.06279259710971016</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2504068445317812</v>
+        <v>1.501979750423291</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.06279259710971016</v>
+        <v>1.466877803208869</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.415462104004402</v>
+        <v>4.090641261992702</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.466877803208869</v>
+        <v>1.942944831332852e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.090641261992702</v>
+        <v>13437421.27643496</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.942944831332852e-14</v>
+        <v>7.230811137788126e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>13437421.27643496</v>
+        <v>3.508264550675873</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>7.230811137788126e-06</v>
+        <v>0.0001462840318120528</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>3.508264550675873</v>
+        <v>7.789226120625301</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001462840318120528</v>
+        <v>1.461462201866495</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.789226120625301</v>
+        <v>0.008875351149974587</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.461462201866495</v>
+        <v>2.989681024921642</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.008875351149974587</v>
+        <v>0.9340663171310434</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.989681024921642</v>
+        <v>1.888086658049454</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9340663171310434</v>
+        <v>7</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.888086658049454</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1582984846208889</v>
       </c>
     </row>
@@ -3538,72 +3388,66 @@
         <v>8.229158896625145e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.349696476342902</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.772487419042708</v>
+        <v>4.006685193807776e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>-0.007900223239038254</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.006685193807776e-06</v>
+        <v>0.253526989119971</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.007900223239038254</v>
+        <v>0.06433515944638132</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.253526989119971</v>
+        <v>1.485135853276557</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.06433515944638132</v>
+        <v>1.458818296533355</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.399931025734841</v>
+        <v>4.10458872175324</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.458818296533355</v>
+        <v>1.929762948802515e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.10458872175324</v>
+        <v>12932212.15877435</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.929762948802515e-14</v>
+        <v>7.284430219661741e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>12932212.15877435</v>
+        <v>3.227376299039757</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.284430219661741e-06</v>
+        <v>0.0001576152943329341</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>3.227376299039757</v>
+        <v>8.909613016897605</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001576152943329341</v>
+        <v>1.347717627010723</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.909613016897605</v>
+        <v>0.01251169185043769</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.347717627010723</v>
+        <v>2.893546353191356</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01251169185043769</v>
+        <v>0.9326444262129555</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.893546353191356</v>
+        <v>1.915575143375379</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9326444262129555</v>
+        <v>7</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.915575143375379</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1511309579768947</v>
       </c>
     </row>
@@ -3618,72 +3462,66 @@
         <v>8.166241462968419e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.3498057775205429</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.7385887212590809</v>
+        <v>4.006150336834114e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>-0.00423398853198797</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.006150336834114e-06</v>
+        <v>0.2575424233153717</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.00423398853198797</v>
+        <v>0.06633900321220552</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.2575424233153717</v>
+        <v>1.473332142975383</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.06633900321220552</v>
+        <v>1.442005726816981</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.384920442745615</v>
+        <v>4.05377569051732</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.442005726816981</v>
+        <v>1.978444312928445e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.05377569051732</v>
+        <v>12557641.0146598</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.978444312928445e-14</v>
+        <v>7.46009175533347e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>12557641.0146598</v>
+        <v>3.119894856908584</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>7.46009175533347e-06</v>
+        <v>0.0001517604418737198</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>3.119894856908584</v>
+        <v>10.1739674566434</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001517604418737198</v>
+        <v>1.172765774584687</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.1739674566434</v>
+        <v>0.01570866472980748</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.172765774584687</v>
+        <v>2.768798132777642</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01570866472980748</v>
+        <v>0.9305842020147633</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.768798132777642</v>
+        <v>1.939781622625774</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9305842020147633</v>
+        <v>7</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.939781622625774</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1632680994920556</v>
       </c>
     </row>
@@ -3698,72 +3536,66 @@
         <v>8.169977759078549e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.3506735173809564</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.7385980374313021</v>
+        <v>4.006171874651973e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>0.005932537778573731</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.006171874651973e-06</v>
+        <v>0.2616573908213706</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.005932537778573731</v>
+        <v>0.06847748466193458</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.2616573908213706</v>
+        <v>1.462769289272879</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.06847748466193458</v>
+        <v>1.434518982900554</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.377386479120781</v>
+        <v>3.944788610014196</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.434518982900554</v>
+        <v>2.089275866026768e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.944788610014196</v>
+        <v>12057842.75281432</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.089275866026768e-14</v>
+        <v>7.68922301168141e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>12057842.75281432</v>
+        <v>3.037631021932377</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>7.68922301168141e-06</v>
+        <v>0.0001391976602583179</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>3.037631021932377</v>
+        <v>9.485487955917881</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001391976602583179</v>
+        <v>1.1801051624369</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.485487955917881</v>
+        <v>0.01252423734420605</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.1801051624369</v>
+        <v>2.803646786577034</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01252423734420605</v>
+        <v>0.9294155501558995</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.803646786577034</v>
+        <v>1.923615028741086</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9294155501558995</v>
+        <v>7</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.923615028741086</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1765627606107003</v>
       </c>
     </row>
@@ -3778,72 +3610,66 @@
         <v>8.316013248854523e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.3705485176835904</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.7634886847417617</v>
+        <v>4.007211777689264e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>0.01884881670928414</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.007211777689264e-06</v>
+        <v>0.2601316228029925</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.01884881670928414</v>
+        <v>0.06800891689921797</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.2601316228029925</v>
+        <v>1.38917345766405</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.06800891689921797</v>
+        <v>1.414190219900537</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.310455018079915</v>
+        <v>3.710690162899104</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.414190219900537</v>
+        <v>2.361205971544501e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.710690162899104</v>
+        <v>11757843.99091068</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.361205971544501e-14</v>
+        <v>7.321321408900987e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>11757843.99091068</v>
+        <v>3.264293947643077</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>7.321321408900987e-06</v>
+        <v>0.000132516888215512</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>3.264293947643077</v>
+        <v>7.734452604075556</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.000132516888215512</v>
+        <v>1.31430707659342</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.734452604075556</v>
+        <v>0.007927393096447532</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.31430707659342</v>
+        <v>3.025250999555002</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.007927393096447532</v>
+        <v>0.9222002568259972</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.025250999555002</v>
+        <v>1.912966793588532</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9222002568259972</v>
+        <v>3</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.912966793588532</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1726597779754932</v>
       </c>
     </row>
@@ -3858,72 +3684,66 @@
         <v>8.577857861338347e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.4017436410599148</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.7899399366605779</v>
+        <v>4.009161885710707e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>0.02619506788648126</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.009161885710707e-06</v>
+        <v>0.2494006003279177</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.02619506788648126</v>
+        <v>0.06288128864773398</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.2494006003279177</v>
+        <v>1.406741519280392</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.06288128864773398</v>
+        <v>1.403057866725663</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.323615022303004</v>
+        <v>3.37376922833677</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.403057866725663</v>
+        <v>2.85635717536239e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.37376922833677</v>
+        <v>10376195.33425637</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.85635717536239e-14</v>
+        <v>8.757556240509583e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>10376195.33425637</v>
+        <v>3.07530922418262</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>8.757556240509583e-06</v>
+        <v>0.0001381300778031578</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>3.07530922418262</v>
+        <v>7.216108660085148</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001381300778031578</v>
+        <v>1.588326042486421</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.216108660085148</v>
+        <v>0.007192740379322224</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.588326042486421</v>
+        <v>3.078220472913352</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.007192740379322224</v>
+        <v>0.9246110752550561</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.078220472913352</v>
+        <v>1.926815159376249</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9246110752550561</v>
+        <v>3</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.926815159376249</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1647618925331653</v>
       </c>
     </row>
@@ -3938,72 +3758,66 @@
         <v>8.855211802290208e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.4090543855380029</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.8551638971040272</v>
+        <v>4.011576720990316e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>0.028595491208839</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.011576720990316e-06</v>
+        <v>0.2391030605738273</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.028595491208839</v>
+        <v>0.0579838026782161</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.2391030605738273</v>
+        <v>1.386934022232097</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.0579838026782161</v>
+        <v>1.385504210655759</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.302240702820512</v>
+        <v>3.387892638724463</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.385504210655759</v>
+        <v>2.832591713301335e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.387892638724463</v>
+        <v>10579202.53278838</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.832591713301335e-14</v>
+        <v>8.538226874111908e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>10579202.53278838</v>
+        <v>3.170223225550182</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>8.538226874111908e-06</v>
+        <v>0.0001365352126165619</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>3.170223225550182</v>
+        <v>8.375616063745632</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001365352126165619</v>
+        <v>1.348739827656211</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.375616063745632</v>
+        <v>0.009578074115361162</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.348739827656211</v>
+        <v>3.037075016164192</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.009578074115361162</v>
+        <v>0.9262820528530858</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.037075016164192</v>
+        <v>1.946011059574744</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9262820528530858</v>
+        <v>3</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.946011059574744</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.16710008540091</v>
       </c>
     </row>
@@ -4018,72 +3832,66 @@
         <v>9.094113808043844e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.3863844839369914</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.9530523186140805</v>
+        <v>4.01416369965883e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>0.02876934822584171</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.01416369965883e-06</v>
+        <v>0.2320646659369487</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.02876934822584171</v>
+        <v>0.05467937626766755</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.2320646659369487</v>
+        <v>1.380584361245142</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.05467937626766755</v>
+        <v>1.368714045785609</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.295232630414687</v>
+        <v>3.525830835177709</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.368714045785609</v>
+        <v>2.615292784395487e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.525830835177709</v>
+        <v>11541811.48825218</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.615292784395487e-14</v>
+        <v>7.810438354872576e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>11541811.48825218</v>
+        <v>3.483920763137941</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>7.810438354872576e-06</v>
+        <v>0.0001304538014779177</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>3.483920763137941</v>
+        <v>9.67698517809435</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001304538014779177</v>
+        <v>1.158264770806047</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.67698517809435</v>
+        <v>0.01221622128253749</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.158264770806047</v>
+        <v>2.909678500249008</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01221622128253749</v>
+        <v>0.9254147564171279</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.909678500249008</v>
+        <v>1.922432113146611</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9254147564171279</v>
+        <v>6</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.922432113146611</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.182408409715646</v>
       </c>
     </row>
@@ -4098,72 +3906,66 @@
         <v>9.289510612155574e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.3458338157619652</v>
+        <v>3.054675412136486e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.054854832742028</v>
+        <v>4.016791085051911e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3.054675412136486e-07</v>
+        <v>0.02832829287727972</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.016791085051911e-06</v>
+        <v>0.2270867272857433</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.02832829287727972</v>
+        <v>0.05237062222515125</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2270867272857433</v>
+        <v>1.389699555100867</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.05237062222515125</v>
+        <v>1.388641132760166</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.304406550177149</v>
+        <v>3.596037883420373</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.388641132760166</v>
+        <v>2.3713833624518e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.596037883420373</v>
+        <v>12731618.78932852</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.3713833624518e-14</v>
+        <v>7.118647444482134e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>12731618.78932852</v>
+        <v>3.843872921974865</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>7.118647444482134e-06</v>
+        <v>0.0001226977668115001</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>3.843872921974865</v>
+        <v>8.648937705365535</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001226977668115001</v>
+        <v>1.165026218562258</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.648937705365535</v>
+        <v>0.009178298893311539</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.165026218562258</v>
+        <v>3.01087083083048</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.009178298893311539</v>
+        <v>0.9256879118978217</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.01087083083048</v>
+        <v>1.949612040720256</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9256879118978217</v>
+        <v>6</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.949612040720256</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1908983555135322</v>
       </c>
     </row>
@@ -4540,7 +4342,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.251882326741741</v>
+        <v>1.2293420408423</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.805793199499663</v>
@@ -4629,7 +4431,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.254840944445791</v>
+        <v>1.229442698176027</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.828466480729501</v>
@@ -4718,7 +4520,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.277822864023952</v>
+        <v>1.269143389062781</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.735015860929797</v>
@@ -4807,7 +4609,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.296810026223139</v>
+        <v>1.283896229224089</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.617916726941173</v>
@@ -4896,7 +4698,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.349562787625223</v>
+        <v>1.337816656289943</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.818134611820451</v>
@@ -4985,7 +4787,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.37484466046371</v>
+        <v>1.363390000927998</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.884935839974105</v>
@@ -5074,7 +4876,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.380320834489205</v>
+        <v>1.364971410791479</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.956744016386191</v>
@@ -5163,7 +4965,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.367255568894561</v>
+        <v>1.362623902569579</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.919826350293017</v>
@@ -5252,7 +5054,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.352436875646595</v>
+        <v>1.34850769582042</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.896324225877488</v>
@@ -5341,7 +5143,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.416949781404349</v>
+        <v>1.408256201578897</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.760289181091501</v>
@@ -5430,7 +5232,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.483200345146679</v>
+        <v>1.486074848307874</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.411668405283335</v>
@@ -5519,7 +5321,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.502402998789782</v>
+        <v>1.499461631204855</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.5039610425295</v>
@@ -5608,7 +5410,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.495005310158729</v>
+        <v>1.498235520247939</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.302015156822941</v>
@@ -5697,7 +5499,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.496035508078757</v>
+        <v>1.496015718986884</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.399336990540809</v>
@@ -5786,7 +5588,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.489359357159255</v>
+        <v>1.49187826400371</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.414340323393792</v>
@@ -5875,7 +5677,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.479103620834155</v>
+        <v>1.487157155819814</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.389177954725374</v>
@@ -5964,7 +5766,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.465861507741882</v>
+        <v>1.480357347151487</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.436300922204481</v>
@@ -6053,7 +5855,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.455028205156064</v>
+        <v>1.472526681054466</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.487711175084476</v>
@@ -6142,7 +5944,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.446224055430999</v>
+        <v>1.463792664759608</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.349665525957054</v>
@@ -6231,7 +6033,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.450097755192726</v>
+        <v>1.470465980365006</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.465776675832398</v>
@@ -6320,7 +6122,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.456514691595577</v>
+        <v>1.477445211596981</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.431047199248003</v>
@@ -6409,7 +6211,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.459019156477017</v>
+        <v>1.479963620106387</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.323527153367582</v>
@@ -6498,7 +6300,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.494601701971812</v>
+        <v>1.509082715734251</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.177217686337116</v>
@@ -6587,7 +6389,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.525171760288001</v>
+        <v>1.540878321936487</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.946345443015038</v>
@@ -6676,7 +6478,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.532449478818015</v>
+        <v>1.54672296538383</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.814419980412923</v>
@@ -6765,7 +6567,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.542499533514466</v>
+        <v>1.55394919560792</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.973925009510777</v>
@@ -6854,7 +6656,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.46847497475728</v>
+        <v>1.484960188051416</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.078771688406424</v>
@@ -6943,7 +6745,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.471481897145848</v>
+        <v>1.489014130985764</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.03477502292187</v>
@@ -7032,7 +6834,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.475449918824472</v>
+        <v>1.492099460394169</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.064309943450755</v>
@@ -7121,7 +6923,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.478058082510313</v>
+        <v>1.492778381059711</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.072016597156778</v>
@@ -7210,7 +7012,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.469739160609742</v>
+        <v>1.484399602097811</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.975062753988403</v>
@@ -7299,7 +7101,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.480194745934114</v>
+        <v>1.49066047351881</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.965420827595253</v>
@@ -7388,7 +7190,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.414595862719078</v>
+        <v>1.424520672809028</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.078684306267803</v>
@@ -7477,7 +7279,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.376647665185861</v>
+        <v>1.381402003749748</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.987888304913182</v>
@@ -7566,7 +7368,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.342545777889991</v>
+        <v>1.341549824348608</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.010056404632502</v>
@@ -7655,7 +7457,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.299815596148256</v>
+        <v>1.311664557225815</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.018166564133185</v>
@@ -7744,7 +7546,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.304656254692822</v>
+        <v>1.317619482936303</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.019093570952959</v>
@@ -7833,7 +7635,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.306684062296966</v>
+        <v>1.316958271481378</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.042573105857217</v>
@@ -7922,7 +7724,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.304699796936625</v>
+        <v>1.316723392411407</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.015993882501813</v>
@@ -8011,7 +7813,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.3026717851913</v>
+        <v>1.317013101933802</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.027343538015037</v>
@@ -8100,7 +7902,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.299923948517394</v>
+        <v>1.31539229771068</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.058124431680004</v>
@@ -8189,7 +7991,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.327269836983753</v>
+        <v>1.342097550005593</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.035281702818031</v>
@@ -8278,7 +8080,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.311503629270204</v>
+        <v>1.327495419142755</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.019931567432076</v>
@@ -8367,7 +8169,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.307699828044995</v>
+        <v>1.325893770458136</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.014313055078992</v>
@@ -8456,7 +8258,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.301897896670825</v>
+        <v>1.320543361609501</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.014273819954404</v>
@@ -8545,7 +8347,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.306543468249195</v>
+        <v>1.328575772510389</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.019023414947772</v>
@@ -8634,7 +8436,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.326396270979007</v>
+        <v>1.347657779883333</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.891975135419244</v>
@@ -8723,7 +8525,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.356804168586572</v>
+        <v>1.372555357039495</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.890636538642446</v>
@@ -8812,7 +8614,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.421918045763916</v>
+        <v>1.435364709826971</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.012500132022077</v>
@@ -8901,7 +8703,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.467545963443512</v>
+        <v>1.477392498239257</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.888028709332543</v>
@@ -8990,7 +8792,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.506918066002974</v>
+        <v>1.509067924538539</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.797686069416593</v>
@@ -9079,7 +8881,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.497876520005296</v>
+        <v>1.499252101638119</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.757221437877404</v>
@@ -9168,7 +8970,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.488030277840307</v>
+        <v>1.495835766036275</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.541158818474231</v>
@@ -9257,7 +9059,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.487922269944375</v>
+        <v>1.493310537862953</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.83371710617439</v>
@@ -9346,7 +9148,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.477067010539808</v>
+        <v>1.487144976096349</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.739046851119857</v>
@@ -9435,7 +9237,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.476183564325598</v>
+        <v>1.480614478222639</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.626353654932189</v>
@@ -9524,7 +9326,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.481943844388006</v>
+        <v>1.488077548727125</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.782255009451181</v>
@@ -9613,7 +9415,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.506686682307312</v>
+        <v>1.508215059553008</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.921934544129528</v>
@@ -9702,7 +9504,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.497062542713385</v>
+        <v>1.497016743050619</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.495998527039405</v>
@@ -9791,7 +9593,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.423265682717551</v>
+        <v>1.416547153605551</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.799137477206034</v>
@@ -9880,7 +9682,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.4115590424789</v>
+        <v>1.4047774585394</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.832939835639343</v>
@@ -9969,7 +9771,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.415557200943237</v>
+        <v>1.412797453038559</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.855639949941381</v>
@@ -10058,7 +9860,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.419517109895071</v>
+        <v>1.423946942499778</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.855877016747561</v>
@@ -10147,7 +9949,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.433950234907393</v>
+        <v>1.433951051898956</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.886434869389953</v>
@@ -10236,7 +10038,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.44920948816644</v>
+        <v>1.450790039305425</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.858840937965387</v>
@@ -10325,7 +10127,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.460601836202465</v>
+        <v>1.464242983378186</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.887954581228456</v>
@@ -10414,7 +10216,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.468935718748011</v>
+        <v>1.474800115006684</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.878429458010603</v>
@@ -10503,7 +10305,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.486610263447213</v>
+        <v>1.493599935117746</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.886518670493984</v>
@@ -10592,7 +10394,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.500742403491572</v>
+        <v>1.510513540898493</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.933182381302093</v>
@@ -10681,7 +10483,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.50700946357112</v>
+        <v>1.515792206719879</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.916760139827145</v>
@@ -10770,7 +10572,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.516017592817121</v>
+        <v>1.530444990657136</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.926850630977605</v>
@@ -10859,7 +10661,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.530746291559575</v>
+        <v>1.548780265461607</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.966666177250835</v>
@@ -10948,7 +10750,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.547079628347432</v>
+        <v>1.568729504475846</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.931505472269158</v>
@@ -11037,7 +10839,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.573465081461149</v>
+        <v>1.592107265630645</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.947296349724811</v>
@@ -11126,7 +10928,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.668087351807909</v>
+        <v>1.691505006388058</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.376662293011825</v>
@@ -11215,7 +11017,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.683115586455478</v>
+        <v>1.711838621502682</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.66768641176439</v>
@@ -11501,7 +11303,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.201556657981907</v>
+        <v>1.189054253899849</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.967871650896314</v>
@@ -11590,7 +11392,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.203414610684796</v>
+        <v>1.191489353462986</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.904865096957217</v>
@@ -11679,7 +11481,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.20818065734212</v>
+        <v>1.205764028762718</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.817456642081639</v>
@@ -11768,7 +11570,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.213626371477618</v>
+        <v>1.20938922675405</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.760876662083244</v>
@@ -11857,7 +11659,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.228967839256995</v>
+        <v>1.228716000797339</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.63008709593575</v>
@@ -11946,7 +11748,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.259495609556034</v>
+        <v>1.25620215011997</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.759986573632755</v>
@@ -12035,7 +11837,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.263967415232497</v>
+        <v>1.260926576830153</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.757761733912905</v>
@@ -12124,7 +11926,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.263138036797947</v>
+        <v>1.256026248609489</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.767837434755392</v>
@@ -12213,7 +12015,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.265283688482356</v>
+        <v>1.257043803829059</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.720950427054017</v>
@@ -12302,7 +12104,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.334475932362121</v>
+        <v>1.325972960551439</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.634352411217705</v>
@@ -12391,7 +12193,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.418009754289621</v>
+        <v>1.396176997887679</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.230276623953634</v>
@@ -12480,7 +12282,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.424365909346532</v>
+        <v>1.398350259613637</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.356091641311453</v>
@@ -12569,7 +12371,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.451570769891827</v>
+        <v>1.426231811647207</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.503734989158986</v>
@@ -12658,7 +12460,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.451739016869138</v>
+        <v>1.428934422041375</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.364645009081699</v>
@@ -12747,7 +12549,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.461474927612655</v>
+        <v>1.437157344720884</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.540300473931779</v>
@@ -12836,7 +12638,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.445637585822755</v>
+        <v>1.422684324318753</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.44589520827762</v>
@@ -12925,7 +12727,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.444843057483566</v>
+        <v>1.421407042723368</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.620938508087185</v>
@@ -13014,7 +12816,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.43016865424306</v>
+        <v>1.40747134336411</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.547775738009753</v>
@@ -13103,7 +12905,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.41932382181235</v>
+        <v>1.398017590552528</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.571197762829558</v>
@@ -13192,7 +12994,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.419035327362675</v>
+        <v>1.397480487608655</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.552694763197823</v>
@@ -13281,7 +13083,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.432854694000643</v>
+        <v>1.409544411822332</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.543024163497891</v>
@@ -13370,7 +13172,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.426736647694353</v>
+        <v>1.401674172315241</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.459857375573346</v>
@@ -13459,7 +13261,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.438144631171487</v>
+        <v>1.415717871247443</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.408531145584439</v>
@@ -13548,7 +13350,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.452349171321047</v>
+        <v>1.43087855484702</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.901758395938876</v>
@@ -13637,7 +13439,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.448607015025756</v>
+        <v>1.431482455728827</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.999465642279537</v>
@@ -13726,7 +13528,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.43287117310925</v>
+        <v>1.421576892552832</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.009599600202701</v>
@@ -13815,7 +13617,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.434218287226492</v>
+        <v>1.421600694096429</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.907565510233479</v>
@@ -13904,7 +13706,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.440332246554351</v>
+        <v>1.420155097728457</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.517326540999294</v>
@@ -13993,7 +13795,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.434940714765741</v>
+        <v>1.417884289500424</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.87675092352477</v>
@@ -14082,7 +13884,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.433231236745457</v>
+        <v>1.414310305786362</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.654421769626743</v>
@@ -14171,7 +13973,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.438956315771406</v>
+        <v>1.420334291794469</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.725339463774542</v>
@@ -14260,7 +14062,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.448134269175541</v>
+        <v>1.430387572355921</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.567437709062153</v>
@@ -14349,7 +14151,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.434558319298568</v>
+        <v>1.410107902007113</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.371747654027813</v>
@@ -14438,7 +14240,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.382406290102442</v>
+        <v>1.361994682522689</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.784217459213945</v>
@@ -14527,7 +14329,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.331082440782649</v>
+        <v>1.297982242370027</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.772951764920516</v>
@@ -14616,7 +14418,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.241244629570869</v>
+        <v>1.235134859481995</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.79675946069661</v>
@@ -14705,7 +14507,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.208765007772128</v>
+        <v>1.206939237273936</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.87813786080574</v>
@@ -14794,7 +14596,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.210995687796177</v>
+        <v>1.208415413987257</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.883743232663325</v>
@@ -14883,7 +14685,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.207390081244902</v>
+        <v>1.205943403922534</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.890033068339915</v>
@@ -14972,7 +14774,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.209271407267901</v>
+        <v>1.207703665138674</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.934127687612956</v>
@@ -15061,7 +14863,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.200267667711605</v>
+        <v>1.199970642745548</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.878822368050918</v>
@@ -15150,7 +14952,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.195338766850749</v>
+        <v>1.195678645384275</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.894210973336021</v>
@@ -15239,7 +15041,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.190972353568928</v>
+        <v>1.19461483155675</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.853986334185581</v>
@@ -15328,7 +15130,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.194054766683663</v>
+        <v>1.198373344371271</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.880220043842524</v>
@@ -15417,7 +15219,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.194161035946842</v>
+        <v>1.198569471197331</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.888780452177387</v>
@@ -15506,7 +15308,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.195530652010769</v>
+        <v>1.20131977036529</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.85846892300898</v>
@@ -15595,7 +15397,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.196929321180538</v>
+        <v>1.204087357612824</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.889649642580474</v>
@@ -15684,7 +15486,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.198293264886992</v>
+        <v>1.204317746925055</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.804650549309387</v>
@@ -15773,7 +15575,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.231872455289977</v>
+        <v>1.240738450628381</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.670220482235761</v>
@@ -15862,7 +15664,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.26353016210092</v>
+        <v>1.273514689156214</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.580678070166118</v>
@@ -15951,7 +15753,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.311671707033862</v>
+        <v>1.323980012835541</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.863969900355982</v>
@@ -16040,7 +15842,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.388274657267861</v>
+        <v>1.398777868116245</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.242209905381523</v>
@@ -16129,7 +15931,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.387733986726756</v>
+        <v>1.398398626124374</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.508192303141847</v>
@@ -16218,7 +16020,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.41393470338422</v>
+        <v>1.423433946849103</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.624431775511151</v>
@@ -16307,7 +16109,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.413683255887697</v>
+        <v>1.425520092690032</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.592568037737539</v>
@@ -16396,7 +16198,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.426140308107248</v>
+        <v>1.431662243532207</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.736044442170079</v>
@@ -16485,7 +16287,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.442192890397276</v>
+        <v>1.441163769665939</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.404767979192011</v>
@@ -16574,7 +16376,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.448361193444642</v>
+        <v>1.435832944667895</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.656157565533656</v>
@@ -16663,7 +16465,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.428734158780139</v>
+        <v>1.419765507199219</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.615708896359616</v>
@@ -16752,7 +16554,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.4165457438851</v>
+        <v>1.403314260167905</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.579039889821001</v>
@@ -16841,7 +16643,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.423212214931129</v>
+        <v>1.408636877689151</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.672611357782349</v>
@@ -16930,7 +16732,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.416921544737803</v>
+        <v>1.407769125239564</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.554814138302226</v>
@@ -17019,7 +16821,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.419961906347694</v>
+        <v>1.409606545766969</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.525430004032962</v>
@@ -17108,7 +16910,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.427271891409338</v>
+        <v>1.41604807352263</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.558595868963967</v>
@@ -17197,7 +16999,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.447365368294</v>
+        <v>1.434382886244823</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.724575857719282</v>
@@ -17286,7 +17088,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.463413263096212</v>
+        <v>1.447511903748064</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.479713766742751</v>
@@ -17375,7 +17177,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.472089858010911</v>
+        <v>1.455111321245034</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.741206560598322</v>
@@ -17464,7 +17266,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.486889685700433</v>
+        <v>1.472484253957371</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.577562420586354</v>
@@ -17553,7 +17355,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.496869964353628</v>
+        <v>1.482172503482642</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.448352885782561</v>
@@ -17642,7 +17444,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.515371198920742</v>
+        <v>1.496899945114249</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.82157776816681</v>
@@ -17731,7 +17533,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.531670032531986</v>
+        <v>1.520862336179725</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.637577842802803</v>
@@ -17820,7 +17622,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.535989809125635</v>
+        <v>1.532969005843038</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.527574031596434</v>
@@ -17909,7 +17711,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.550416077601761</v>
+        <v>1.549297169809538</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.655351072330342</v>
@@ -17998,7 +17800,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.567945877473213</v>
+        <v>1.563504090105444</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.92213417488575</v>
@@ -18087,7 +17889,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.567112177524198</v>
+        <v>1.569472359290197</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.092230220610987</v>
@@ -18176,7 +17978,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.554549905648356</v>
+        <v>1.559836506396093</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.103455207703209</v>
@@ -18462,7 +18264,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.464134111134448</v>
+        <v>1.448833582929208</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.026001512743156</v>
@@ -18551,7 +18353,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.485220717960213</v>
+        <v>1.466155882240121</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.116827162115336</v>
@@ -18640,7 +18442,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.530784646748095</v>
+        <v>1.507712945410595</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.375612617729992</v>
@@ -18729,7 +18531,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.545151691305146</v>
+        <v>1.521593741443147</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.548366434647989</v>
@@ -18818,7 +18620,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.553794413808952</v>
+        <v>1.533217834324613</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.491705044413797</v>
@@ -18907,7 +18709,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.571863731395357</v>
+        <v>1.546720211618177</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.423423237711944</v>
@@ -18996,7 +18798,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.581288557812284</v>
+        <v>1.552383573230553</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.643025364552429</v>
@@ -19085,7 +18887,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.563827978084778</v>
+        <v>1.531158984680661</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.355742002621728</v>
@@ -19174,7 +18976,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.562681627939337</v>
+        <v>1.534730952745917</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.237215572536307</v>
@@ -19263,7 +19065,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.584959274358663</v>
+        <v>1.549351153169874</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.11769910163534</v>
@@ -19352,7 +19154,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.615186882773181</v>
+        <v>1.5773448724424</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.20149997018292</v>
@@ -19441,7 +19243,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.604996132756661</v>
+        <v>1.561107628510724</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.209080569590083</v>
@@ -19530,7 +19332,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.603545526901166</v>
+        <v>1.567155219757383</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.250007573231129</v>
@@ -19619,7 +19421,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.597659913820616</v>
+        <v>1.557352689125975</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.231274824509589</v>
@@ -19708,7 +19510,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.582411846046722</v>
+        <v>1.547986762015495</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.228002756801739</v>
@@ -19797,7 +19599,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.566600975756397</v>
+        <v>1.541462450201758</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.176493881825467</v>
@@ -19886,7 +19688,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.55902959604967</v>
+        <v>1.534315594321239</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.172231566343122</v>
@@ -19975,7 +19777,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.550660214691623</v>
+        <v>1.524832180983846</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.192473186312884</v>
@@ -20064,7 +19866,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.553951555573111</v>
+        <v>1.52826146051112</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.218759577327881</v>
@@ -20153,7 +19955,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.550235274715156</v>
+        <v>1.527433496108868</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.188708464782005</v>
@@ -20242,7 +20044,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.554646689424675</v>
+        <v>1.528954253029374</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.191231049046868</v>
@@ -20331,7 +20133,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.552739190274034</v>
+        <v>1.523055452620776</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.137568418154814</v>
@@ -20420,7 +20222,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.590846796977918</v>
+        <v>1.555862646257575</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.711139797274697</v>
@@ -20509,7 +20311,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.593760505732582</v>
+        <v>1.556798322016426</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.734175594755066</v>
@@ -20598,7 +20400,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.584775207048355</v>
+        <v>1.544450079577179</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.122960435029739</v>
@@ -20687,7 +20489,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.595647824255163</v>
+        <v>1.555080077391972</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.914763455571153</v>
@@ -20776,7 +20578,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.590555363878335</v>
+        <v>1.557593362983547</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.134532718979183</v>
@@ -20865,7 +20667,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.592560145776615</v>
+        <v>1.557799068548473</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.246730929797034</v>
@@ -20954,7 +20756,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.598333274908067</v>
+        <v>1.569454392386874</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.01391309388245</v>
@@ -21043,7 +20845,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.603399784062151</v>
+        <v>1.575925834541198</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.233340272624178</v>
@@ -21132,7 +20934,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.611211347315878</v>
+        <v>1.581073697504321</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.510311068089648</v>
@@ -21221,7 +21023,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.608748582302421</v>
+        <v>1.585553941431385</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.132146330596263</v>
@@ -21310,7 +21112,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.550336490408517</v>
+        <v>1.535788480663579</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.146863294927154</v>
@@ -21399,7 +21201,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.519237155074046</v>
+        <v>1.511077127773021</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.159886682550292</v>
@@ -21488,7 +21290,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.508323303888383</v>
+        <v>1.501566582851459</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.188005501102457</v>
@@ -21577,7 +21379,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.496908084428515</v>
+        <v>1.506132945200006</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.1780046576907</v>
@@ -21666,7 +21468,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.509319009001868</v>
+        <v>1.520867235817023</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.257792263100634</v>
@@ -21755,7 +21557,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.515593905035594</v>
+        <v>1.526420644968745</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.291060964962756</v>
@@ -21844,7 +21646,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.51902046558878</v>
+        <v>1.532602646085717</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.338609771822005</v>
@@ -21933,7 +21735,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.519234126272389</v>
+        <v>1.538200474691504</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.266277758548198</v>
@@ -22022,7 +21824,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.517244865991842</v>
+        <v>1.538101989646406</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.22308225295701</v>
@@ -22111,7 +21913,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.519888179172522</v>
+        <v>1.537308964008697</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.218280541708821</v>
@@ -22200,7 +22002,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.50321454986763</v>
+        <v>1.522756362121715</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.215335743631293</v>
@@ -22289,7 +22091,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.503781027687183</v>
+        <v>1.52263992976821</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.225851877122951</v>
@@ -22378,7 +22180,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.501781716716031</v>
+        <v>1.515812772464021</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.266271830722506</v>
@@ -22467,7 +22269,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.506688540538584</v>
+        <v>1.521867471474893</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.269550996628336</v>
@@ -22556,7 +22358,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.533589730458057</v>
+        <v>1.549024982988319</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.048083796324885</v>
@@ -22645,7 +22447,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.564001112982138</v>
+        <v>1.564753576054082</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.564251275509971</v>
@@ -22734,7 +22536,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.611540479697835</v>
+        <v>1.601821626882147</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.613809928276437</v>
@@ -22823,7 +22625,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.632925133348719</v>
+        <v>1.615591455333422</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.475658695449595</v>
@@ -22912,7 +22714,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.630647051195903</v>
+        <v>1.607858251387858</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.503791795290407</v>
@@ -23001,7 +22803,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.617762356561081</v>
+        <v>1.59093036009305</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.908609590135239</v>
@@ -23090,7 +22892,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.597580477497821</v>
+        <v>1.574088339794884</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.278535030814071</v>
@@ -23179,7 +22981,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.593962724374804</v>
+        <v>1.570067576629545</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.162026210351224</v>
@@ -23268,7 +23070,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.589757281800941</v>
+        <v>1.566950952147246</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.225965845597766</v>
@@ -23357,7 +23159,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.585140702132283</v>
+        <v>1.558511656635793</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.102541818025042</v>
@@ -23446,7 +23248,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.590149088760464</v>
+        <v>1.567182317840693</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.82553874302151</v>
@@ -23535,7 +23337,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.581961058444366</v>
+        <v>1.56237292106644</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.187284747597499</v>
@@ -23624,7 +23426,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.583448406640862</v>
+        <v>1.560942486701699</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.973437476368698</v>
@@ -23713,7 +23515,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.559066074573371</v>
+        <v>1.545270471791284</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.455347385718844</v>
@@ -23802,7 +23604,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.51153497681724</v>
+        <v>1.507400405021149</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.271858873214914</v>
@@ -23891,7 +23693,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.504980115859733</v>
+        <v>1.504299764744216</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.295482361614993</v>
@@ -23980,7 +23782,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.489340485197467</v>
+        <v>1.501157530292598</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.302062858935749</v>
@@ -24069,7 +23871,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.493815664681096</v>
+        <v>1.50274825496912</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.230148496504418</v>
@@ -24158,7 +23960,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.503571319302569</v>
+        <v>1.515197416539589</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.28800904328304</v>
@@ -24247,7 +24049,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.524061679179644</v>
+        <v>1.533986673994729</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.22266922095448</v>
@@ -24336,7 +24138,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.535631635960597</v>
+        <v>1.550037216568643</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.359669051078476</v>
@@ -24425,7 +24227,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.550135691868721</v>
+        <v>1.563550303678798</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.420048896363472</v>
@@ -24514,7 +24316,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.559021760643309</v>
+        <v>1.570949759788857</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.455417269231438</v>
@@ -24603,7 +24405,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.566865066904821</v>
+        <v>1.579003800089047</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.393275028998671</v>
@@ -24692,7 +24494,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.580623798357279</v>
+        <v>1.596282157915237</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.441211726029321</v>
@@ -24781,7 +24583,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.594682313008095</v>
+        <v>1.604894828267704</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.346527076099784</v>
@@ -24870,7 +24672,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.615018395552311</v>
+        <v>1.619485933922786</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.35728879397263</v>
@@ -24959,7 +24761,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.623401411884703</v>
+        <v>1.625663585475786</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.403786744850241</v>
@@ -25048,7 +24850,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.647691777773702</v>
+        <v>1.647130929383098</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.286603424732914</v>
@@ -25137,7 +24939,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.712748935057178</v>
+        <v>1.701816957453785</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.027640368650099</v>
@@ -25423,7 +25225,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.412485488431414</v>
+        <v>1.389949901346408</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.248883260430252</v>
@@ -25512,7 +25314,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.423810248273043</v>
+        <v>1.398059579007879</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.198859044935515</v>
@@ -25601,7 +25403,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.473082278834197</v>
+        <v>1.449768067178728</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.998411341950723</v>
@@ -25690,7 +25492,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.495936417433531</v>
+        <v>1.464439682306603</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.9674707420373</v>
@@ -25779,7 +25581,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.549831131350768</v>
+        <v>1.516050836291032</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.249292700287524</v>
@@ -25868,7 +25670,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.557327517560895</v>
+        <v>1.521461462453936</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.459026811121932</v>
@@ -25957,7 +25759,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.578154474261076</v>
+        <v>1.543172892296905</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.250242983264025</v>
@@ -26046,7 +25848,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.569565968536141</v>
+        <v>1.540247381916792</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.308387532386944</v>
@@ -26135,7 +25937,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.570886684494253</v>
+        <v>1.529160475654635</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.369232713668606</v>
@@ -26224,7 +26026,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.567856929935002</v>
+        <v>1.523421185932123</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.289464843123948</v>
@@ -26313,7 +26115,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.62591787434403</v>
+        <v>1.55903455338645</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.589119270922807</v>
@@ -26402,7 +26204,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.617320759528637</v>
+        <v>1.546582856426389</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.609757744218903</v>
@@ -26491,7 +26293,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.611574910239064</v>
+        <v>1.545865598593062</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.66082617559333</v>
@@ -26580,7 +26382,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.606988967354144</v>
+        <v>1.535541947397573</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.578134434660732</v>
@@ -26669,7 +26471,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.591805038308683</v>
+        <v>1.530172963612709</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.763469513915283</v>
@@ -26758,7 +26560,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.579364027933</v>
+        <v>1.527037928070228</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.733425712722703</v>
@@ -26847,7 +26649,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.577329290841068</v>
+        <v>1.525416348260344</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.560748412950989</v>
@@ -26936,7 +26738,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.569145803933011</v>
+        <v>1.516843825378293</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.629903109085729</v>
@@ -27025,7 +26827,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.571650240914891</v>
+        <v>1.519585671824567</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.651971693183659</v>
@@ -27114,7 +26916,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.571445808092137</v>
+        <v>1.520392783796171</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.749439647355064</v>
@@ -27203,7 +27005,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.575952151440593</v>
+        <v>1.521991278273456</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.758673210651003</v>
@@ -27292,7 +27094,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.570625703925856</v>
+        <v>1.513633005003685</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.586503339262083</v>
@@ -27381,7 +27183,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.584167214484407</v>
+        <v>1.527792984865381</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.328334192783188</v>
@@ -27470,7 +27272,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.59129082432857</v>
+        <v>1.545753298391153</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.944109419168537</v>
@@ -27559,7 +27361,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.591374060406092</v>
+        <v>1.550218466368881</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.152155472761865</v>
@@ -27648,7 +27450,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.598306539336602</v>
+        <v>1.564291709284841</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.933732870473916</v>
@@ -27737,7 +27539,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.570637423610723</v>
+        <v>1.540643145933686</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.891281352139566</v>
@@ -27826,7 +27628,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.578648852367848</v>
+        <v>1.549488411730012</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.930204094273307</v>
@@ -27915,7 +27717,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.572180086372143</v>
+        <v>1.549006254602276</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.564309555822221</v>
@@ -28004,7 +27806,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.582838681883313</v>
+        <v>1.558260835570481</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.069679306252673</v>
@@ -28093,7 +27895,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.584726981018299</v>
+        <v>1.552698966725298</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.810785507225072</v>
@@ -28182,7 +27984,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.57895480631398</v>
+        <v>1.552102028156544</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.541188422671801</v>
@@ -28271,7 +28073,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.571203712589337</v>
+        <v>1.543426819102452</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.630304930621789</v>
@@ -28360,7 +28162,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.575304101767461</v>
+        <v>1.550274607579702</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.670352852174337</v>
@@ -28449,7 +28251,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.575944778887798</v>
+        <v>1.549403004041942</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.522126609752473</v>
@@ -28538,7 +28340,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.587551736311363</v>
+        <v>1.558474390918797</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.612106520565447</v>
@@ -28627,7 +28429,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588668224555608</v>
+        <v>1.56657087310006</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.573646543389815</v>
@@ -28716,7 +28518,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.596556656487509</v>
+        <v>1.579552637652339</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.647025542930797</v>
@@ -28805,7 +28607,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.593779407669408</v>
+        <v>1.575375861845551</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.746689988806211</v>
@@ -28894,7 +28696,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.59850667115548</v>
+        <v>1.579581119734855</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.571631284351469</v>
@@ -28983,7 +28785,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.598315640958659</v>
+        <v>1.580800622177797</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.368587853885484</v>
@@ -29072,7 +28874,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.636974665740724</v>
+        <v>1.61644516581626</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.623849021528724</v>
@@ -29161,7 +28963,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.625710212765163</v>
+        <v>1.611387409088893</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.660141870662779</v>
@@ -29250,7 +29052,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.616652763260887</v>
+        <v>1.606659292119632</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.669660075402275</v>
@@ -29339,7 +29141,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.608010891952975</v>
+        <v>1.597023466132842</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.671652864785079</v>
@@ -29428,7 +29230,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.619680512162005</v>
+        <v>1.611078003475293</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.722833733766613</v>
@@ -29517,7 +29319,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.631995751663694</v>
+        <v>1.617281969056638</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.442546582403117</v>
@@ -29606,7 +29408,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.622478089304275</v>
+        <v>1.604196164990681</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.941599918722102</v>
@@ -29695,7 +29497,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.615383218276452</v>
+        <v>1.5965825832365</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.135366394981165</v>
@@ -29784,7 +29586,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.608008088556485</v>
+        <v>1.589080306432417</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.113448494320719</v>
@@ -29873,7 +29675,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.6021205915782</v>
+        <v>1.588322290748057</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.059087617767451</v>
@@ -29962,7 +29764,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.61322987390678</v>
+        <v>1.595929264434075</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.121213041146822</v>
@@ -30051,7 +29853,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.582693086439715</v>
+        <v>1.565391049416801</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.686522424035685</v>
@@ -30140,7 +29942,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.583702159079857</v>
+        <v>1.569253950400648</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.073708046896408</v>
@@ -30229,7 +30031,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.574460048020807</v>
+        <v>1.564941273751862</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.018415055645696</v>
@@ -30318,7 +30120,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.570345624328415</v>
+        <v>1.558796215149005</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.85781709210579</v>
@@ -30407,7 +30209,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.563058080969206</v>
+        <v>1.547175060973968</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.726824069168929</v>
@@ -30496,7 +30298,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.562474949908794</v>
+        <v>1.546007521208598</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.039083323583858</v>
@@ -30585,7 +30387,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.576745051250531</v>
+        <v>1.557502014446943</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.911550815102974</v>
@@ -30674,7 +30476,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.563967291566671</v>
+        <v>1.548800093801167</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.503186892112252</v>
@@ -30763,7 +30565,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.556828959366666</v>
+        <v>1.548331393407232</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.534867522952942</v>
@@ -30852,7 +30654,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.5622049422663</v>
+        <v>1.556614961598611</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.439038518399597</v>
@@ -30941,7 +30743,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.569530469905124</v>
+        <v>1.567822347149549</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.546757725510155</v>
@@ -31030,7 +30832,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.578531641389195</v>
+        <v>1.573897236753808</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.635979258824704</v>
@@ -31119,7 +30921,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.593525238374076</v>
+        <v>1.590339962491739</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.65606083588929</v>
@@ -31208,7 +31010,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.608179630222848</v>
+        <v>1.599111460502169</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.793962199835842</v>
@@ -31297,7 +31099,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.616399099225475</v>
+        <v>1.607600206809695</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.536841692154674</v>
@@ -31386,7 +31188,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.646973087413879</v>
+        <v>1.637301576382002</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.478135881319561</v>
@@ -31475,7 +31277,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.657285249516769</v>
+        <v>1.643702238476704</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.467934256824249</v>
@@ -31564,7 +31366,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.66392718964581</v>
+        <v>1.648732203897705</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.710828010165365</v>
@@ -31653,7 +31455,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.685348705234493</v>
+        <v>1.670672997172418</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.738080134411455</v>
@@ -31742,7 +31544,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.697724241627046</v>
+        <v>1.683059235682435</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.573196173858647</v>
@@ -31831,7 +31633,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.719135494917547</v>
+        <v>1.700982185708727</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.7801831446824</v>
@@ -31920,7 +31722,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.716842787816293</v>
+        <v>1.700054197197479</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.731854063541965</v>
@@ -32009,7 +31811,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.731032096705078</v>
+        <v>1.70949028331577</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.416566708223904</v>
@@ -32098,7 +31900,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.742779626535068</v>
+        <v>1.71868944157298</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.871137280982738</v>
@@ -32384,7 +32186,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.449056952163643</v>
+        <v>1.426827860912054</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.260940510120276</v>
@@ -32473,7 +32275,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.458490156685726</v>
+        <v>1.427214885724244</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.284639549771053</v>
@@ -32562,7 +32364,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.504701615747517</v>
+        <v>1.478966086110812</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.131901246369869</v>
@@ -32651,7 +32453,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.519642411595868</v>
+        <v>1.488976383580567</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.32065571199566</v>
@@ -32740,7 +32542,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.538778360304118</v>
+        <v>1.530014593274568</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.452158230811767</v>
@@ -32829,7 +32631,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.567552310038695</v>
+        <v>1.555792947013691</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.432870978391528</v>
@@ -32918,7 +32720,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.585602298737822</v>
+        <v>1.568933610910308</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.556039531289126</v>
@@ -33007,7 +32809,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.560823239035059</v>
+        <v>1.559700035923987</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.595495635624312</v>
@@ -33096,7 +32898,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.570353272111674</v>
+        <v>1.561310264880266</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.589864456661845</v>
@@ -33185,7 +32987,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.568100265048922</v>
+        <v>1.558427550153679</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.48402767717808</v>
@@ -33274,7 +33076,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.607524813199553</v>
+        <v>1.58455600456253</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.485451183503276</v>
@@ -33363,7 +33165,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.611132088602736</v>
+        <v>1.578957241092373</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.487844783309924</v>
@@ -33452,7 +33254,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.600072784155588</v>
+        <v>1.574365731703488</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.470074143960038</v>
@@ -33541,7 +33343,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.595634912306041</v>
+        <v>1.568212046637079</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.526079280217814</v>
@@ -33630,7 +33432,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.583840623252008</v>
+        <v>1.555528710833815</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.484931022276621</v>
@@ -33719,7 +33521,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.588230195036725</v>
+        <v>1.561009148998315</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.400916007281418</v>
@@ -33808,7 +33610,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.579460189136209</v>
+        <v>1.557461008959579</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.424392466444048</v>
@@ -33897,7 +33699,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.566726904982921</v>
+        <v>1.542971461267796</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.440446565127436</v>
@@ -33986,7 +33788,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.578376326830384</v>
+        <v>1.549710633232671</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.462212314518012</v>
@@ -34075,7 +33877,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.569007317385295</v>
+        <v>1.542452203354015</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.598744714354165</v>
@@ -34164,7 +33966,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.559475574608138</v>
+        <v>1.531837093927843</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.494137256749057</v>
@@ -34253,7 +34055,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.555879685400462</v>
+        <v>1.531863515997123</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.152681647940098</v>
@@ -34342,7 +34144,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.616186231721729</v>
+        <v>1.579387838580549</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.01877825335757</v>
@@ -34431,7 +34233,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.621945041856321</v>
+        <v>1.586854836953926</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.253967343344466</v>
@@ -34520,7 +34322,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.621598405017032</v>
+        <v>1.586817302720192</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.175501137227324</v>
@@ -34609,7 +34411,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.619995295919365</v>
+        <v>1.586157701851704</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.93990186930893</v>
@@ -34698,7 +34500,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.598098056834735</v>
+        <v>1.575560552244339</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.809033328074785</v>
@@ -34787,7 +34589,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.614759566395046</v>
+        <v>1.588372129787685</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.795601605828165</v>
@@ -34876,7 +34678,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.60200385507793</v>
+        <v>1.582348743362784</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.89437238790616</v>
@@ -34965,7 +34767,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.611119397368265</v>
+        <v>1.589687357644135</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.876876481020566</v>
@@ -35054,7 +34856,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.60153219817174</v>
+        <v>1.576199874013177</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.794379262234366</v>
@@ -35143,7 +34945,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.597393942925754</v>
+        <v>1.57672557949592</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.704105474581692</v>
@@ -35232,7 +35034,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.581695819160714</v>
+        <v>1.559759304579681</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.649453176709244</v>
@@ -35321,7 +35123,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.562675713436202</v>
+        <v>1.545584516100455</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.633267496207861</v>
@@ -35410,7 +35212,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.561314081711279</v>
+        <v>1.541880190016902</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.541648604008985</v>
@@ -35499,7 +35301,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.548965279405368</v>
+        <v>1.531799920173353</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.556021566548554</v>
@@ -35588,7 +35390,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.55038590179917</v>
+        <v>1.539843655668531</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.690696362948066</v>
@@ -35677,7 +35479,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.550253850064397</v>
+        <v>1.539772364435858</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.575834294054523</v>
@@ -35766,7 +35568,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.550035999834678</v>
+        <v>1.540986395253501</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.718463426403604</v>
@@ -35855,7 +35657,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.549961841223942</v>
+        <v>1.544303408510154</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.698446322914597</v>
@@ -35944,7 +35746,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.554050322400672</v>
+        <v>1.549584280684025</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.607585992815611</v>
@@ -36033,7 +35835,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.566413757376279</v>
+        <v>1.561352319160227</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.651355947347906</v>
@@ -36122,7 +35924,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.55295247513061</v>
+        <v>1.553038396885915</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.741210080692179</v>
@@ -36211,7 +36013,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.557314847937367</v>
+        <v>1.55730690786086</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.662029277874069</v>
@@ -36300,7 +36102,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.558762342623468</v>
+        <v>1.55891026342902</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.714716549093648</v>
@@ -36389,7 +36191,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.576000801754077</v>
+        <v>1.574966269225816</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.703110155970304</v>
@@ -36478,7 +36280,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.58843335789138</v>
+        <v>1.588709910367341</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.395688839854515</v>
@@ -36567,7 +36369,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.59371235161455</v>
+        <v>1.591648595425073</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.89502062985976</v>
@@ -36656,7 +36458,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.615528478530341</v>
+        <v>1.615508723002283</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.527360892934841</v>
@@ -36745,7 +36547,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.611316571352595</v>
+        <v>1.615157671484207</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.883672069654736</v>
@@ -36834,7 +36636,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.634208685353477</v>
+        <v>1.632133737595347</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.034867327884227</v>
@@ -36923,7 +36725,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.655737350518927</v>
+        <v>1.641939233389663</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.413556738024819</v>
@@ -37012,7 +36814,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.655447659562067</v>
+        <v>1.637552493521549</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.555420085936574</v>
@@ -37101,7 +36903,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.65114848799765</v>
+        <v>1.633407100854068</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.552712186002802</v>
@@ -37190,7 +36992,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.645426277635909</v>
+        <v>1.628471735639892</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.895105928337848</v>
@@ -37279,7 +37081,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.651005354117316</v>
+        <v>1.625804006257694</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.226916499707141</v>
@@ -37368,7 +37170,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.652297130919784</v>
+        <v>1.623936150244657</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.112407909758412</v>
@@ -37457,7 +37259,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.646877828403185</v>
+        <v>1.618332016096909</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.385932382759874</v>
@@ -37546,7 +37348,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.653073183096459</v>
+        <v>1.619430007698313</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.40446704072993</v>
@@ -37635,7 +37437,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.596088686462063</v>
+        <v>1.567502058676874</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.326145033579861</v>
@@ -37724,7 +37526,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.571542210042833</v>
+        <v>1.552382394256281</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.378181738454087</v>
@@ -37813,7 +37615,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.580550783083045</v>
+        <v>1.561356317567574</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.378410694098594</v>
@@ -37902,7 +37704,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.588175112299278</v>
+        <v>1.576159333031188</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.460865821207142</v>
@@ -37991,7 +37793,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.605681493544977</v>
+        <v>1.588259619408289</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.533468926879315</v>
@@ -38080,7 +37882,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.62886630876107</v>
+        <v>1.611458640835267</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.511813664472349</v>
@@ -38169,7 +37971,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.63620773720988</v>
+        <v>1.619908095608629</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.467343575601074</v>
@@ -38258,7 +38060,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.640563857853386</v>
+        <v>1.625366338304669</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.572627743977185</v>
@@ -38347,7 +38149,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.64430519103401</v>
+        <v>1.637412493887593</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.480930920971232</v>
@@ -38436,7 +38238,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.660693917172285</v>
+        <v>1.654891639647591</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.529846784101933</v>
@@ -38525,7 +38327,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.661311389629231</v>
+        <v>1.658109626270364</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.644349579570334</v>
@@ -38614,7 +38416,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.673130896675932</v>
+        <v>1.679084926173286</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.656842208911498</v>
@@ -38703,7 +38505,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.688293864172706</v>
+        <v>1.695218706246017</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.56735779885514</v>
@@ -38792,7 +38594,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.701162192745249</v>
+        <v>1.709820399829984</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.629201534398796</v>
@@ -38881,7 +38683,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.70606984110099</v>
+        <v>1.717501757973027</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.869467821034613</v>
@@ -38970,7 +38772,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.7551092553664</v>
+        <v>1.769659962725673</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.035200169542132</v>
@@ -39059,7 +38861,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.789051581899664</v>
+        <v>1.800932086525908</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.949966498106006</v>
@@ -39345,7 +39147,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.131106427431072</v>
+        <v>1.113802970782142</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.973015321922817</v>
@@ -39434,7 +39236,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.139694725149733</v>
+        <v>1.121884462903778</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.939987624840556</v>
@@ -39523,7 +39325,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.147518270417331</v>
+        <v>1.131644272093758</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.870268276848737</v>
@@ -39612,7 +39414,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.14363384927559</v>
+        <v>1.129474901476863</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.875373342448119</v>
@@ -39701,7 +39503,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.180298139545185</v>
+        <v>1.162268979610454</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.855386673482454</v>
@@ -39790,7 +39592,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.201228408161634</v>
+        <v>1.185912328111132</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.880249835486493</v>
@@ -39879,7 +39681,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.210648436177831</v>
+        <v>1.198233824643238</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.860356099586428</v>
@@ -39968,7 +39770,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.209266792042304</v>
+        <v>1.19519455165061</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.862307817067876</v>
@@ -40057,7 +39859,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.19940571483521</v>
+        <v>1.182980290746316</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.913442246683889</v>
@@ -40146,7 +39948,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.199657228893059</v>
+        <v>1.186502593218343</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.83903725687272</v>
@@ -40235,7 +40037,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.229128803227724</v>
+        <v>1.220492538187442</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.885518374905071</v>
@@ -40324,7 +40126,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.238287388832857</v>
+        <v>1.231120176124165</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.108196547835997</v>
@@ -40413,7 +40215,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.241439315793748</v>
+        <v>1.236410730910798</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.955929931494644</v>
@@ -40502,7 +40304,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.236652904033322</v>
+        <v>1.224034036820753</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.205254543718539</v>
@@ -40591,7 +40393,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.22462335178862</v>
+        <v>1.209895878238203</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.195260316701904</v>
@@ -40680,7 +40482,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.19271151988308</v>
+        <v>1.183182847768681</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.227756509616424</v>
@@ -40769,7 +40571,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.186031996679074</v>
+        <v>1.172058115782145</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.111995657721125</v>
@@ -40858,7 +40660,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.172062012007412</v>
+        <v>1.15806936237915</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.237017361925737</v>
@@ -40947,7 +40749,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.168185211968522</v>
+        <v>1.15502250216328</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.224538875314211</v>
@@ -41036,7 +40838,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.162897320943443</v>
+        <v>1.149422253278467</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.299323279995097</v>
@@ -41125,7 +40927,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.164076224841341</v>
+        <v>1.151832289698825</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.314789772286816</v>
@@ -41214,7 +41016,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.165290334208684</v>
+        <v>1.152251903002074</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.106769861340986</v>
@@ -41303,7 +41105,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.17636541842773</v>
+        <v>1.165392196325048</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.005358183619411</v>
@@ -41392,7 +41194,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.189127718716938</v>
+        <v>1.184450688961487</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.25669318612824</v>
@@ -41481,7 +41283,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.190675460495397</v>
+        <v>1.183701048725939</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.30763607401297</v>
@@ -41570,7 +41372,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.195422310246693</v>
+        <v>1.190608605741882</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.322223711082662</v>
@@ -41659,7 +41461,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.187001168248678</v>
+        <v>1.179181159038555</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.275949656864504</v>
@@ -41748,7 +41550,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.186608912008721</v>
+        <v>1.179781434433204</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.101174276154642</v>
@@ -41837,7 +41639,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.188610515946376</v>
+        <v>1.182269094258064</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.112773612382503</v>
@@ -41926,7 +41728,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.185087174565029</v>
+        <v>1.183366247571864</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.098459506150148</v>
@@ -42015,7 +41817,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.193714113305375</v>
+        <v>1.188650852904668</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.032675577911956</v>
@@ -42104,7 +41906,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.204276948854382</v>
+        <v>1.203393944771413</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.193710044543975</v>
@@ -42193,7 +41995,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.184517819432792</v>
+        <v>1.179904196672926</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.091699388283082</v>
@@ -42282,7 +42084,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.174655177096374</v>
+        <v>1.162154418234215</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.942823735804875</v>
@@ -42371,7 +42173,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.168545534105536</v>
+        <v>1.157753301236596</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.977563948571472</v>
@@ -42460,7 +42262,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.175464529337786</v>
+        <v>1.166764235731981</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.958336429447155</v>
@@ -42549,7 +42351,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.176819772746885</v>
+        <v>1.167457613622372</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.019520382528496</v>
@@ -42638,7 +42440,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.1777954792054</v>
+        <v>1.167730265751858</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.997575132976073</v>
@@ -42727,7 +42529,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.176246649710108</v>
+        <v>1.164680469628196</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.094180087000625</v>
@@ -42816,7 +42618,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.170455983836315</v>
+        <v>1.16141736051979</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.03003598333255</v>
@@ -42905,7 +42707,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.156931397386863</v>
+        <v>1.147680774271932</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.886282818941458</v>
@@ -42994,7 +42796,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.157980886678337</v>
+        <v>1.144029367881777</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.901114597943333</v>
@@ -43083,7 +42885,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.134625908251785</v>
+        <v>1.123827773818294</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.99632466013919</v>
@@ -43172,7 +42974,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.140200156503076</v>
+        <v>1.128825851598842</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.931016969915112</v>
@@ -43261,7 +43063,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.135216734668427</v>
+        <v>1.120712329403428</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.062163860237546</v>
@@ -43350,7 +43152,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.138672017311881</v>
+        <v>1.12676962152007</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.001007814870458</v>
@@ -43439,7 +43241,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.138674194206154</v>
+        <v>1.129440847073264</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.040554477716777</v>
@@ -43528,7 +43330,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.155332886665814</v>
+        <v>1.143760892146888</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.944480976044878</v>
@@ -43617,7 +43419,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.157853290055712</v>
+        <v>1.149761295645045</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.92702968389445</v>
@@ -43706,7 +43508,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.154274883938376</v>
+        <v>1.147525423063962</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.891714470150573</v>
@@ -43795,7 +43597,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.143606517857545</v>
+        <v>1.133929562860222</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.94848313882632</v>
@@ -43884,7 +43686,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.133003086331785</v>
+        <v>1.122910776643118</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.93516862103739</v>
@@ -43973,7 +43775,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.130252100087826</v>
+        <v>1.117417936466356</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.941468177301312</v>
@@ -44062,7 +43864,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.114466937915867</v>
+        <v>1.102811995352723</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.974168844613925</v>
@@ -44151,7 +43953,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.116217142389424</v>
+        <v>1.102521813765827</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.974570206277081</v>
@@ -44240,7 +44042,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.128964362488098</v>
+        <v>1.113805797136969</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.969985993154591</v>
@@ -44329,7 +44131,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.137116151756026</v>
+        <v>1.121176493348848</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.8267669969938</v>
@@ -44418,7 +44220,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.127830580296495</v>
+        <v>1.115283458396331</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.127741770861326</v>
@@ -44507,7 +44309,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.12884215426758</v>
+        <v>1.116660230032959</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.153498111902619</v>
@@ -44596,7 +44398,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.11798380639704</v>
+        <v>1.109093282749924</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.124199780778714</v>
@@ -44685,7 +44487,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.117421214446287</v>
+        <v>1.107649383093894</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.12703161860105</v>
@@ -44774,7 +44576,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.115964155931584</v>
+        <v>1.105259010472117</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.088658879843141</v>
@@ -44863,7 +44665,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.101745880160864</v>
+        <v>1.093193759731677</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.07450254206445</v>
@@ -44952,7 +44754,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.10589302433582</v>
+        <v>1.097899513455712</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.070877844078215</v>
@@ -45041,7 +44843,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.110644008302589</v>
+        <v>1.105654938637168</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.204350086959382</v>
@@ -45130,7 +44932,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.121266161673508</v>
+        <v>1.118939802350157</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.958413035476428</v>
@@ -45219,7 +45021,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.13113445768962</v>
+        <v>1.130315319140137</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.162906490868605</v>
@@ -45308,7 +45110,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.148380270571357</v>
+        <v>1.151207921298384</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.884043147496013</v>
@@ -45397,7 +45199,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.157895547282544</v>
+        <v>1.164713588719208</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.102114973903631</v>
@@ -45486,7 +45288,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.170211327272407</v>
+        <v>1.18062640791256</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.100022256644156</v>
@@ -45575,7 +45377,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.176542072648604</v>
+        <v>1.191222448839342</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.07143020218058</v>
@@ -45664,7 +45466,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.190282838989676</v>
+        <v>1.209642242257454</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.038307990464716</v>
@@ -45753,7 +45555,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.205976188162382</v>
+        <v>1.229756570335961</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.958635027459451</v>
@@ -45842,7 +45644,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.226806963930336</v>
+        <v>1.252936746499608</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.884314728828095</v>
@@ -45931,7 +45733,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.257760635101542</v>
+        <v>1.290092054867399</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.930935242377901</v>
@@ -46020,7 +45822,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.251379028066186</v>
+        <v>1.277588815331031</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.088065671179366</v>
